--- a/msg_whatsapp/atts.xlsx
+++ b/msg_whatsapp/atts.xlsx
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">emanoel</t>
+    <t xml:space="preserve">nome </t>
   </si>
   <si>
-    <t xml:space="preserve">louise</t>
+    <t xml:space="preserve">Telefone</t>
   </si>
   <si>
-    <t xml:space="preserve">emanoel2</t>
+    <t xml:space="preserve">Emanoel</t>
   </si>
   <si>
-    <t xml:space="preserve">tetinha</t>
+    <t xml:space="preserve">Louise</t>
   </si>
 </sst>
 </file>
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,13 +128,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
   </cols>
@@ -142,32 +143,24 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>5585997489610</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>5585996741225</v>
+        <v>5585997489610</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5585997489610</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5585996453057</v>
+        <v>5585996741225</v>
       </c>
     </row>
   </sheetData>

--- a/msg_whatsapp/atts.xlsx
+++ b/msg_whatsapp/atts.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Emanoel</t>
   </si>
   <si>
-    <t xml:space="preserve">Louise</t>
+    <t xml:space="preserve">Henrique</t>
   </si>
 </sst>
 </file>
@@ -131,10 +131,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
   </cols>
@@ -160,7 +160,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5585996741225</v>
+        <v>5585999867949</v>
       </c>
     </row>
   </sheetData>
